--- a/storage.xlsx
+++ b/storage.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarav\Downloads\model_web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarav\Projects\model_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB679EA1-A0AE-4AD8-A042-1B4444B25327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901189A0-3E37-4A72-9102-4FC3DE48E54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2339942C-4166-42DF-A1C1-2F62199EC0BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2339942C-4166-42DF-A1C1-2F62199EC0BF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blouse" sheetId="1" r:id="rId1"/>
+    <sheet name="Sleeve Designs" sheetId="4" r:id="rId2"/>
+    <sheet name="Neck Designs" sheetId="3" r:id="rId3"/>
+    <sheet name="Aari" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="192">
   <si>
     <t>ID</t>
   </si>
@@ -676,7 +679,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -702,7 +705,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -715,6 +717,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1030,21 +1044,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCCAB43-1872-4865-89F7-C7A4C5F77C34}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.77734375" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" customWidth="1"/>
-    <col min="7" max="8" width="23.5546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="113.21875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="26.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="4"/>
+    <col min="5" max="8" width="23.5546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="113.21875" style="6" customWidth="1"/>
     <col min="10" max="10" width="29" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -1174,87 +1189,87 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>138</v>
+        <v>9</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>120</v>
+        <v>9</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="58.2" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>126</v>
+      <c r="B7" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>128</v>
+        <v>300</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>128</v>
+        <v>9</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="6" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
@@ -1262,84 +1277,80 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>129</v>
+        <v>400</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>129</v>
+        <v>9</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2">
-        <v>150</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>174</v>
+        <v>400</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>175</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2">
-        <v>100</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>176</v>
+        <v>300</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>177</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="6" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
@@ -1347,28 +1358,26 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2">
-        <v>150</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>178</v>
+        <v>400</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>179</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="6" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
@@ -1376,26 +1385,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="3"/>
+        <v>13</v>
+      </c>
       <c r="I12" s="6" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
@@ -1403,82 +1411,83 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D13" s="2">
         <v>400</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="3"/>
+        <v>44</v>
+      </c>
       <c r="I14" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2">
         <v>400</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="I15" s="6" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
@@ -1486,577 +1495,164 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D16" s="2">
         <v>400</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="I16" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>82</v>
+      <c r="B17" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="D17" s="2">
-        <v>300</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>37</v>
+        <v>400</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="3"/>
+      <c r="G17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="I17" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>84</v>
+      <c r="B18" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="D18" s="2">
         <v>400</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>38</v>
+      <c r="E18" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="3"/>
+      <c r="G18" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="I18" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>86</v>
+      <c r="B19" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="D19" s="2">
         <v>400</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>14</v>
+      <c r="E19" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>13</v>
+      <c r="G19" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>88</v>
+      <c r="B20" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="D20" s="2">
         <v>400</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>40</v>
+      <c r="E20" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="2">
-        <v>400</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="2">
-        <v>400</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="2">
-        <v>400</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="2">
-        <v>400</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="2">
-        <v>400</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="2">
-        <v>400</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="60" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="2">
-        <v>400</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I20" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D28" s="2">
-        <v>150</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>180</v>
-      </c>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="5"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="75" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="2">
-        <v>150</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D30" s="2">
-        <v>200</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F30" t="s">
-        <v>152</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="75" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D31" s="2">
-        <v>200</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F31" t="s">
-        <v>152</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="75" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D32" s="2">
-        <v>200</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F32" t="s">
-        <v>152</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="60" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D33" s="2">
-        <v>200</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="F33" t="s">
-        <v>152</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D34" s="2">
-        <v>200</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="F34" t="s">
-        <v>152</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="60" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D35" s="2">
-        <v>200</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F35" t="s">
-        <v>152</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>173</v>
-      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2064,91 +1660,699 @@
     <hyperlink ref="E2" r:id="rId1" xr:uid="{FB588CA0-8FE0-4EE5-B29B-97C29D8D516F}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{23654C75-5E67-4C24-983D-BB2A72E63E63}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{3CD6EC97-8052-4EC4-A249-60D56D2A1313}"/>
-    <hyperlink ref="E16" r:id="rId4" xr:uid="{15DC04D7-577A-4E97-A7F0-D9DA3ECC3FF8}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{15DC04D7-577A-4E97-A7F0-D9DA3ECC3FF8}"/>
     <hyperlink ref="G2" r:id="rId5" xr:uid="{2609FC5E-AF31-468F-934A-62A90286B25D}"/>
     <hyperlink ref="G3" r:id="rId6" xr:uid="{DBB8975B-8131-4CDD-937C-D2E6119FE7E1}"/>
     <hyperlink ref="G4" r:id="rId7" xr:uid="{76AF5CAD-364C-45A5-86DC-D2E6819F8F0D}"/>
     <hyperlink ref="H2" r:id="rId8" xr:uid="{89AB311D-122A-4B19-91A1-A164EC864B0B}"/>
     <hyperlink ref="H3" r:id="rId9" xr:uid="{4B8CA1F4-97B0-472E-BEB5-B5622FDE9A8C}"/>
     <hyperlink ref="J2" r:id="rId10" xr:uid="{6ABD0D54-B22E-4D4C-B4E8-CFC1B253AD0F}"/>
-    <hyperlink ref="G19" r:id="rId11" xr:uid="{45C9AE52-071E-4962-8D20-95F034984604}"/>
-    <hyperlink ref="E19" r:id="rId12" xr:uid="{BAB9B680-A9F2-4691-92AB-8CA16333E586}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{45C9AE52-071E-4962-8D20-95F034984604}"/>
+    <hyperlink ref="E12" r:id="rId12" xr:uid="{BAB9B680-A9F2-4691-92AB-8CA16333E586}"/>
     <hyperlink ref="J3" r:id="rId13" xr:uid="{454457E2-A2B4-45A6-8CAC-F706047944DC}"/>
-    <hyperlink ref="E12" r:id="rId14" xr:uid="{5CC2990D-BC12-45A2-83E7-B03684EE886E}"/>
-    <hyperlink ref="G12" r:id="rId15" xr:uid="{8CFEFD14-3664-47EE-BC80-B298F50237A9}"/>
-    <hyperlink ref="E13" r:id="rId16" xr:uid="{2D5BBA18-92F2-40BB-9EB8-EFD87F9D001C}"/>
-    <hyperlink ref="G13" r:id="rId17" xr:uid="{3656CA5F-A78A-4454-A2F6-9FEEF8954739}"/>
-    <hyperlink ref="H13" r:id="rId18" xr:uid="{12364E9F-310A-4356-96F6-C2D4EAD0BA46}"/>
-    <hyperlink ref="E14" r:id="rId19" xr:uid="{A29E35D1-5557-4DAF-A2FB-4A9DA16C0CBB}"/>
-    <hyperlink ref="G14" r:id="rId20" xr:uid="{5B8AECDC-1B9F-492D-89F2-183CCCD0EFD0}"/>
-    <hyperlink ref="E15" r:id="rId21" xr:uid="{2918C589-AF11-4E89-AE18-FF2D7AE19B4B}"/>
-    <hyperlink ref="G15" r:id="rId22" xr:uid="{F4E5B8C2-9C48-419D-97A9-26337B53DF6D}"/>
-    <hyperlink ref="G16" r:id="rId23" xr:uid="{4E464582-FFB0-4793-9714-C58235BF6745}"/>
-    <hyperlink ref="G17" r:id="rId24" xr:uid="{3C2446F1-D51F-465B-848C-0C35F1367F32}"/>
-    <hyperlink ref="E17" r:id="rId25" xr:uid="{3D11D4E4-02E9-4B61-9D19-60AF15169DDB}"/>
-    <hyperlink ref="E18" r:id="rId26" xr:uid="{CF25CD4A-927D-4AA4-823B-89DC9DB5FFA4}"/>
-    <hyperlink ref="G18" r:id="rId27" xr:uid="{B4266B19-0026-4D82-A603-4C8A8F004CD0}"/>
-    <hyperlink ref="E20" r:id="rId28" xr:uid="{974BB6BD-8D12-44F8-BD25-ED3B023AA159}"/>
-    <hyperlink ref="G20" r:id="rId29" xr:uid="{89486677-3D0A-4727-AAB8-50B053538F64}"/>
-    <hyperlink ref="H20" r:id="rId30" xr:uid="{552349D2-7A6B-494F-843F-B331DBB1B6DE}"/>
-    <hyperlink ref="E21" r:id="rId31" xr:uid="{2D8CF422-AED1-4872-87A8-B3AE516D92EF}"/>
-    <hyperlink ref="G21" r:id="rId32" xr:uid="{1DEDB661-7442-4A5C-A6F7-1204C9F7868D}"/>
-    <hyperlink ref="E22" r:id="rId33" xr:uid="{B8A5B01A-5E9E-40D2-B571-ADDB1A198C99}"/>
-    <hyperlink ref="G22" r:id="rId34" xr:uid="{4DD77962-FBE1-4859-B50B-D5E413F68A58}"/>
-    <hyperlink ref="H22" r:id="rId35" xr:uid="{6CF5B222-9B1A-49B5-8683-69291053DB5F}"/>
-    <hyperlink ref="E23" r:id="rId36" xr:uid="{31170597-1143-45DA-8EEC-EC904E2AFA08}"/>
-    <hyperlink ref="G23" r:id="rId37" xr:uid="{CED90838-C76F-44A4-A2C5-09269BBC4655}"/>
-    <hyperlink ref="H23" r:id="rId38" xr:uid="{87B5E26B-DD33-4BD3-8D07-A7B945B3D571}"/>
-    <hyperlink ref="E24" r:id="rId39" xr:uid="{E05D18F5-751E-4091-B123-91A57C520FC6}"/>
-    <hyperlink ref="G24" r:id="rId40" xr:uid="{E03ABA7C-2372-4F36-99A0-19793C991FE9}"/>
-    <hyperlink ref="H24" r:id="rId41" xr:uid="{3047CBCC-C689-42A1-8D72-9274A6FDC822}"/>
-    <hyperlink ref="E25" r:id="rId42" xr:uid="{ED800B34-310D-4333-87B4-7F8A28AF7281}"/>
-    <hyperlink ref="G25" r:id="rId43" xr:uid="{693D6087-C936-426F-9B04-9C370F655F31}"/>
-    <hyperlink ref="E26" r:id="rId44" xr:uid="{D9C01FB5-466F-41F0-9D38-9704569EA9E5}"/>
-    <hyperlink ref="G26" r:id="rId45" xr:uid="{35D34652-F90D-4C3A-910E-3B3A70FF9D06}"/>
-    <hyperlink ref="H26" r:id="rId46" xr:uid="{01393D58-137F-4AA2-BE58-17C5803F82A8}"/>
-    <hyperlink ref="E27" r:id="rId47" xr:uid="{E39D3659-8C1C-4C0D-9144-A38D783327CD}"/>
-    <hyperlink ref="G27" r:id="rId48" xr:uid="{6D8DB014-4EF3-4F4D-B951-2611CC01F94D}"/>
-    <hyperlink ref="H27" r:id="rId49" xr:uid="{3C91ECEE-FA8D-4E90-B1E5-88EA592CDA5C}"/>
-    <hyperlink ref="E6" r:id="rId50" xr:uid="{6FE1A839-3A66-40C7-9D47-E837FA302749}"/>
-    <hyperlink ref="G6" r:id="rId51" xr:uid="{8A7CA079-BFEC-49EB-83DB-DFA7EAC9D464}"/>
-    <hyperlink ref="H6" r:id="rId52" xr:uid="{EABF28BA-3446-41C0-A651-84262A2A5CB4}"/>
-    <hyperlink ref="E7" r:id="rId53" xr:uid="{50A935C9-6BD0-41D8-AF96-33ECC98CFCC2}"/>
-    <hyperlink ref="G7" r:id="rId54" xr:uid="{5C0858DE-B83F-44B8-B658-10382FDE2DB0}"/>
-    <hyperlink ref="E8" r:id="rId55" xr:uid="{EA14F21F-B7F6-49B9-A1BF-953234F55846}"/>
-    <hyperlink ref="G8" r:id="rId56" xr:uid="{906B007D-FB38-4944-83F9-55524AFCE3C3}"/>
-    <hyperlink ref="E5" r:id="rId57" xr:uid="{22867B7B-755D-4F5B-A810-CABC89F0523E}"/>
-    <hyperlink ref="G5" r:id="rId58" xr:uid="{145D8C38-9220-4A76-9285-65B341DC99A8}"/>
-    <hyperlink ref="E9" r:id="rId59" xr:uid="{81CB0DE7-37A5-41AC-8B9D-28FC70AA6128}"/>
-    <hyperlink ref="G9" r:id="rId60" xr:uid="{D9A6E10D-3996-434A-B16F-1A65493E1798}"/>
-    <hyperlink ref="H9" r:id="rId61" xr:uid="{F0E5610F-332A-4DA7-B0FB-2518E730EC36}"/>
-    <hyperlink ref="E10" r:id="rId62" xr:uid="{9F54F99E-2603-4BEC-8227-A2099A701C34}"/>
-    <hyperlink ref="G10" r:id="rId63" xr:uid="{8CFBC6B5-986F-4323-A0B5-99B1124367E9}"/>
-    <hyperlink ref="H10" r:id="rId64" xr:uid="{8C1360BC-BE58-458A-827A-22D86C38B38E}"/>
-    <hyperlink ref="E11" r:id="rId65" xr:uid="{A3280345-512D-49C6-BDC8-4F1788F70215}"/>
-    <hyperlink ref="G11" r:id="rId66" xr:uid="{0672CF34-0557-4BB2-9459-C01E74D6065D}"/>
-    <hyperlink ref="H11" r:id="rId67" xr:uid="{B5FACE55-7AA8-45DD-B368-9EEE99A4A9CD}"/>
-    <hyperlink ref="E28" r:id="rId68" xr:uid="{85093D72-C26A-4119-9269-5E41B93BE190}"/>
-    <hyperlink ref="G28" r:id="rId69" xr:uid="{E580AC50-9D07-4547-B199-617DF801F6D0}"/>
-    <hyperlink ref="E29" r:id="rId70" xr:uid="{E1D411ED-DC55-46A4-9016-724CDA5F7835}"/>
-    <hyperlink ref="G29" r:id="rId71" xr:uid="{E4494067-FDD7-4ACB-B2A6-91B19BCEA5FB}"/>
-    <hyperlink ref="H29" r:id="rId72" xr:uid="{A371C7C7-D292-465D-84F0-75185ADB763A}"/>
-    <hyperlink ref="J29" r:id="rId73" xr:uid="{0FEDD489-D710-4EA8-8E23-69BEFE39A64E}"/>
-    <hyperlink ref="E30" r:id="rId74" xr:uid="{D0165883-B711-4AE6-B3D2-78B807C6FEA0}"/>
-    <hyperlink ref="G30" r:id="rId75" xr:uid="{137FBA2D-574D-4B81-80EA-917919005AE4}"/>
-    <hyperlink ref="E31" r:id="rId76" xr:uid="{0BC74270-8F34-4D4E-B265-83C3F4046B28}"/>
-    <hyperlink ref="G31" r:id="rId77" xr:uid="{49F47022-8407-4DC7-9878-C0EBB909F052}"/>
-    <hyperlink ref="H31" r:id="rId78" xr:uid="{51E5E6E3-F3E7-4AAF-A1E9-16B2C2EBC272}"/>
-    <hyperlink ref="E32" r:id="rId79" xr:uid="{EC92CBA8-9711-476A-8514-A46970AB4330}"/>
-    <hyperlink ref="G32" r:id="rId80" xr:uid="{9A65B6E6-CE9F-46BD-A8CB-5883912994BF}"/>
-    <hyperlink ref="E33" r:id="rId81" xr:uid="{DA0F76FF-E012-45EB-BDEC-0702B556D5D6}"/>
-    <hyperlink ref="G33" r:id="rId82" xr:uid="{B44C7F1E-5837-4FBE-A45D-CE69E94A8743}"/>
-    <hyperlink ref="E34" r:id="rId83" xr:uid="{48486199-52A3-4233-B9B3-FCF585AD9015}"/>
-    <hyperlink ref="G34" r:id="rId84" xr:uid="{E416AE9F-9A48-4AC3-B097-BE2D814BB3ED}"/>
-    <hyperlink ref="E35" r:id="rId85" xr:uid="{37215E58-29AD-443E-A4E9-484E5B03594F}"/>
-    <hyperlink ref="G35" r:id="rId86" xr:uid="{D57B77ED-066E-4D97-AECD-EBFF50C0E174}"/>
-    <hyperlink ref="E36" r:id="rId87" xr:uid="{B086BF29-0CA6-41D0-AFCE-7673ED72DDAE}"/>
-    <hyperlink ref="G36" r:id="rId88" xr:uid="{FF0A2560-C670-4D35-9AE8-D4B3471441BE}"/>
+    <hyperlink ref="E5" r:id="rId14" xr:uid="{5CC2990D-BC12-45A2-83E7-B03684EE886E}"/>
+    <hyperlink ref="G5" r:id="rId15" xr:uid="{8CFEFD14-3664-47EE-BC80-B298F50237A9}"/>
+    <hyperlink ref="E6" r:id="rId16" xr:uid="{2D5BBA18-92F2-40BB-9EB8-EFD87F9D001C}"/>
+    <hyperlink ref="G6" r:id="rId17" xr:uid="{3656CA5F-A78A-4454-A2F6-9FEEF8954739}"/>
+    <hyperlink ref="H6" r:id="rId18" xr:uid="{12364E9F-310A-4356-96F6-C2D4EAD0BA46}"/>
+    <hyperlink ref="E7" r:id="rId19" xr:uid="{A29E35D1-5557-4DAF-A2FB-4A9DA16C0CBB}"/>
+    <hyperlink ref="G7" r:id="rId20" xr:uid="{5B8AECDC-1B9F-492D-89F2-183CCCD0EFD0}"/>
+    <hyperlink ref="E8" r:id="rId21" xr:uid="{2918C589-AF11-4E89-AE18-FF2D7AE19B4B}"/>
+    <hyperlink ref="G8" r:id="rId22" xr:uid="{F4E5B8C2-9C48-419D-97A9-26337B53DF6D}"/>
+    <hyperlink ref="G9" r:id="rId23" xr:uid="{4E464582-FFB0-4793-9714-C58235BF6745}"/>
+    <hyperlink ref="G10" r:id="rId24" xr:uid="{3C2446F1-D51F-465B-848C-0C35F1367F32}"/>
+    <hyperlink ref="E10" r:id="rId25" xr:uid="{3D11D4E4-02E9-4B61-9D19-60AF15169DDB}"/>
+    <hyperlink ref="E11" r:id="rId26" xr:uid="{CF25CD4A-927D-4AA4-823B-89DC9DB5FFA4}"/>
+    <hyperlink ref="G11" r:id="rId27" xr:uid="{B4266B19-0026-4D82-A603-4C8A8F004CD0}"/>
+    <hyperlink ref="E13" r:id="rId28" xr:uid="{974BB6BD-8D12-44F8-BD25-ED3B023AA159}"/>
+    <hyperlink ref="G13" r:id="rId29" xr:uid="{89486677-3D0A-4727-AAB8-50B053538F64}"/>
+    <hyperlink ref="H13" r:id="rId30" xr:uid="{552349D2-7A6B-494F-843F-B331DBB1B6DE}"/>
+    <hyperlink ref="E14" r:id="rId31" xr:uid="{2D8CF422-AED1-4872-87A8-B3AE516D92EF}"/>
+    <hyperlink ref="G14" r:id="rId32" xr:uid="{1DEDB661-7442-4A5C-A6F7-1204C9F7868D}"/>
+    <hyperlink ref="E15" r:id="rId33" xr:uid="{B8A5B01A-5E9E-40D2-B571-ADDB1A198C99}"/>
+    <hyperlink ref="G15" r:id="rId34" xr:uid="{4DD77962-FBE1-4859-B50B-D5E413F68A58}"/>
+    <hyperlink ref="H15" r:id="rId35" xr:uid="{6CF5B222-9B1A-49B5-8683-69291053DB5F}"/>
+    <hyperlink ref="E16" r:id="rId36" xr:uid="{31170597-1143-45DA-8EEC-EC904E2AFA08}"/>
+    <hyperlink ref="G16" r:id="rId37" xr:uid="{CED90838-C76F-44A4-A2C5-09269BBC4655}"/>
+    <hyperlink ref="H16" r:id="rId38" xr:uid="{87B5E26B-DD33-4BD3-8D07-A7B945B3D571}"/>
+    <hyperlink ref="E17" r:id="rId39" xr:uid="{E05D18F5-751E-4091-B123-91A57C520FC6}"/>
+    <hyperlink ref="G17" r:id="rId40" xr:uid="{E03ABA7C-2372-4F36-99A0-19793C991FE9}"/>
+    <hyperlink ref="H17" r:id="rId41" xr:uid="{3047CBCC-C689-42A1-8D72-9274A6FDC822}"/>
+    <hyperlink ref="E18" r:id="rId42" xr:uid="{ED800B34-310D-4333-87B4-7F8A28AF7281}"/>
+    <hyperlink ref="G18" r:id="rId43" xr:uid="{693D6087-C936-426F-9B04-9C370F655F31}"/>
+    <hyperlink ref="E19" r:id="rId44" xr:uid="{D9C01FB5-466F-41F0-9D38-9704569EA9E5}"/>
+    <hyperlink ref="G19" r:id="rId45" xr:uid="{35D34652-F90D-4C3A-910E-3B3A70FF9D06}"/>
+    <hyperlink ref="H19" r:id="rId46" xr:uid="{01393D58-137F-4AA2-BE58-17C5803F82A8}"/>
+    <hyperlink ref="E20" r:id="rId47" xr:uid="{E39D3659-8C1C-4C0D-9144-A38D783327CD}"/>
+    <hyperlink ref="G20" r:id="rId48" xr:uid="{6D8DB014-4EF3-4F4D-B951-2611CC01F94D}"/>
+    <hyperlink ref="H20" r:id="rId49" xr:uid="{3C91ECEE-FA8D-4E90-B1E5-88EA592CDA5C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36BFA87-C568-4F4E-8A59-52B3FCE9FFED}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="15"/>
+    <col min="3" max="3" width="19" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="12">
+        <v>150</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="12">
+        <v>150</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="12">
+        <v>100</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="12">
+        <v>150</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="12">
+        <v>150</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="12">
+        <v>150</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{22867B7B-755D-4F5B-A810-CABC89F0523E}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{145D8C38-9220-4A76-9285-65B341DC99A8}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{81CB0DE7-37A5-41AC-8B9D-28FC70AA6128}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{D9A6E10D-3996-434A-B16F-1A65493E1798}"/>
+    <hyperlink ref="H3" r:id="rId5" xr:uid="{F0E5610F-332A-4DA7-B0FB-2518E730EC36}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{9F54F99E-2603-4BEC-8227-A2099A701C34}"/>
+    <hyperlink ref="G4" r:id="rId7" xr:uid="{8CFBC6B5-986F-4323-A0B5-99B1124367E9}"/>
+    <hyperlink ref="H4" r:id="rId8" xr:uid="{8C1360BC-BE58-458A-827A-22D86C38B38E}"/>
+    <hyperlink ref="E5" r:id="rId9" xr:uid="{A3280345-512D-49C6-BDC8-4F1788F70215}"/>
+    <hyperlink ref="G5" r:id="rId10" xr:uid="{0672CF34-0557-4BB2-9459-C01E74D6065D}"/>
+    <hyperlink ref="H5" r:id="rId11" xr:uid="{B5FACE55-7AA8-45DD-B368-9EEE99A4A9CD}"/>
+    <hyperlink ref="E6" r:id="rId12" xr:uid="{D2987D09-B1EF-44C0-B5AD-66886139BE1B}"/>
+    <hyperlink ref="G6" r:id="rId13" xr:uid="{D99CF6D2-1A24-43BD-94BC-F56553117B27}"/>
+    <hyperlink ref="E7" r:id="rId14" xr:uid="{D48366C3-52EF-43EA-B7DB-38A6A853B1A0}"/>
+    <hyperlink ref="G7" r:id="rId15" xr:uid="{980A975F-A397-4CF4-A71F-545337F14333}"/>
+    <hyperlink ref="H7" r:id="rId16" xr:uid="{266608AC-4519-4F35-A6CE-66CA58EF2A18}"/>
+    <hyperlink ref="J7" r:id="rId17" xr:uid="{DC3423A7-31F6-4F7A-98CF-EB74179DF769}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9A80E3-8885-447B-B2AB-3DD175D4CA0B}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="12">
+        <v>200</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="12">
+        <v>200</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="12">
+        <v>200</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="12">
+        <v>200</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="12">
+        <v>200</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="12">
+        <v>200</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{D0165883-B711-4AE6-B3D2-78B807C6FEA0}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{137FBA2D-574D-4B81-80EA-917919005AE4}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{0BC74270-8F34-4D4E-B265-83C3F4046B28}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{49F47022-8407-4DC7-9878-C0EBB909F052}"/>
+    <hyperlink ref="H3" r:id="rId5" xr:uid="{51E5E6E3-F3E7-4AAF-A1E9-16B2C2EBC272}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{EC92CBA8-9711-476A-8514-A46970AB4330}"/>
+    <hyperlink ref="G4" r:id="rId7" xr:uid="{9A65B6E6-CE9F-46BD-A8CB-5883912994BF}"/>
+    <hyperlink ref="E5" r:id="rId8" xr:uid="{DA0F76FF-E012-45EB-BDEC-0702B556D5D6}"/>
+    <hyperlink ref="G5" r:id="rId9" xr:uid="{B44C7F1E-5837-4FBE-A45D-CE69E94A8743}"/>
+    <hyperlink ref="E6" r:id="rId10" xr:uid="{48486199-52A3-4233-B9B3-FCF585AD9015}"/>
+    <hyperlink ref="G6" r:id="rId11" xr:uid="{E416AE9F-9A48-4AC3-B097-BE2D814BB3ED}"/>
+    <hyperlink ref="E7" r:id="rId12" xr:uid="{37215E58-29AD-443E-A4E9-484E5B03594F}"/>
+    <hyperlink ref="G7" r:id="rId13" xr:uid="{D57B77ED-066E-4D97-AECD-EBFF50C0E174}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B016B5-A424-43E2-9D21-B2706CFF155C}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{6FE1A839-3A66-40C7-9D47-E837FA302749}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{8A7CA079-BFEC-49EB-83DB-DFA7EAC9D464}"/>
+    <hyperlink ref="H2" r:id="rId3" xr:uid="{EABF28BA-3446-41C0-A651-84262A2A5CB4}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{50A935C9-6BD0-41D8-AF96-33ECC98CFCC2}"/>
+    <hyperlink ref="G3" r:id="rId5" xr:uid="{5C0858DE-B83F-44B8-B658-10382FDE2DB0}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{EA14F21F-B7F6-49B9-A1BF-953234F55846}"/>
+    <hyperlink ref="G4" r:id="rId7" xr:uid="{906B007D-FB38-4944-83F9-55524AFCE3C3}"/>
+    <hyperlink ref="E5" r:id="rId8" xr:uid="{B086BF29-0CA6-41D0-AFCE-7673ED72DDAE}"/>
+    <hyperlink ref="G5" r:id="rId9" xr:uid="{FF0A2560-C670-4D35-9AE8-D4B3471441BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/storage.xlsx
+++ b/storage.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarav\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarav\Projects\coinsora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99A22DB3-2F7C-402F-B385-751255935FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BFE764-1294-49AC-B87B-7AE3C9319D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A4295153-D957-4117-8BC1-D264311D4EE7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A4295153-D957-4117-8BC1-D264311D4EE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Coin Showcase" sheetId="1" r:id="rId1"/>
+    <sheet name="Leader Coin Vault" sheetId="3" r:id="rId2"/>
+    <sheet name="Old Note Gallery" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="186">
   <si>
     <t>ID</t>
   </si>
@@ -72,9 +74,6 @@
     <t>India 10 Paise (1984, Aluminium)</t>
   </si>
   <si>
-    <t>Modern Indian Coins</t>
-  </si>
-  <si>
     <t>This coin is a 10 Paise piece issued by the Republic of India in 1984. It is made of aluminium and features a scalloped (floral) edge design. The obverse side contains the denomination "10 Paise" in both Hindi and English, along with the year 1984. These coins were minted in Mumbai, Kolkata, and Hyderabad, with minor distinguishing mint marks. The design is simple, a classic of Indian small denomination coins from the 1980s.</t>
   </si>
   <si>
@@ -156,9 +155,6 @@
     <t>COIN-008</t>
   </si>
   <si>
-    <t>COIN-009</t>
-  </si>
-  <si>
     <t>COIN-010</t>
   </si>
   <si>
@@ -283,6 +279,321 @@
   </si>
   <si>
     <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760804791/20251018_143826_ucfqx5.jpg</t>
+  </si>
+  <si>
+    <t>Old Coin Showcase</t>
+  </si>
+  <si>
+    <t>Leader Coin Vault</t>
+  </si>
+  <si>
+    <t>India 2 Rupees "Aryabhata Satellite" Banknote</t>
+  </si>
+  <si>
+    <t>This 2 Rupees banknote, issued by the Reserve Bank of India, features the image of Aryabhata – India's first satellite – on the reverse side. The front side displays the value in multiple languages, the Ashoka Lion Capital, and signatures of the then RBI Governor (R.N. Malhotra for most satellite notes). These notes were printed from the late 1970s to the early 1990s and have the serial number, watermark window, and RBI seal. They are part of India's iconic pre-1995 currency series and considered highly collectible, especially in good condition, due to their association with Indian space history and their discontinuation in the mid-1990s.</t>
+  </si>
+  <si>
+    <t>A Reserve Bank of India ₹2 note featuring the iconic Aryabhata satellite on the reverse, symbolizing India's entry into the space age. The obverse shows the denomination in multiple languages, the Ashoka Lion, and a signature from then-Governor (likely C. Rangarajan, S. Venkitaramanan, or R.N. Malhotra, depending on series) with full legal and design features of the early 1990s issues. Issued between 1976 and 1994, these notes are now discontinued and are highly collectible for their historical and scientific significance.</t>
+  </si>
+  <si>
+    <t>India 2 Rupees "Aryabhata Satellite" Note</t>
+  </si>
+  <si>
+    <t>India 1 Rupee "Sagar Samrat Oil Rig" Note (1992 Series)</t>
+  </si>
+  <si>
+    <t>This 1 Rupee banknote, issued by the Government of India, features the iconic Sagar Samrat oil rig on the reverse, introduced in the 1980s and continuing into the early 1990s. The obverse carries denominations in Hindi and English, as well as a signature from the Secretary, Ministry of Finance (often Montek Singh Ahluwalia for 1992 issues). The note also highlights the Ashoka Lion Capital in the design and denomination in multiple Indian languages. Such notes were discontinued later and replaced by coins, making them popular among collectors.</t>
+  </si>
+  <si>
+    <t>India 1 Rupee "Sagar Samrat Oil Rig" Note (1991 Series)</t>
+  </si>
+  <si>
+    <t>This 1 Rupee note, issued by the Government of India, features the iconic Sagar Samrat oil exploration platform on the reverse along with the denomination and a multi-language panel. The obverse carries the denomination “एक रुपया,” “One Rupee,” Government of India text, Ashoka Lion emblem, and the signature of the Finance Secretary (Montek Singh Ahluwalia for 1991, with "B" inset seen here). These notes were circulated as legal tender until the early 1990s and are important collectibles due to their distinctive design and historical relevance.</t>
+  </si>
+  <si>
+    <t>India 1 Rupee "Sagar Samrat Oil Rig" Note (2015 Series)</t>
+  </si>
+  <si>
+    <t>This 1 Rupee note was reissued by the Government of India after a gap of more than 20 years, featuring the iconic Sagar Samrat offshore oil drilling platform on the reverse, along with a one rupee coin design on the left. The front side includes the denomination “₹1,” Ashoka Lion emblem, and the signature of then-Finance Secretary Rajiv Mehrishi. The note has a combination of pink and green tones, with text in Hindi and English. It is notable among collectors for its "L" inset and distinctive modern print run.</t>
+  </si>
+  <si>
+    <t>India 5 Rupees "Tractor" Note (Pre-Gandhi Series)</t>
+  </si>
+  <si>
+    <t>This historic 5 Rupee note was issued by the Reserve Bank of India, showcasing a farmer driving a tractor on the reverse side—symbolic of India's agricultural progress. The obverse displays the denomination, RBI guarantees, the Ashoka Lion, and, in some series, the image of Mahatma Gandhi. Earlier variants (1975–2001 tractor notes) may only have the farmer and tractor, while later ones (Gandhi series) include Gandhi's portrait. Such notes are considered highly collectible due to their discontinued status and nostalgic value throughout rural and economic history.</t>
+  </si>
+  <si>
+    <t>India 5 Rupees "Tractor" Note (Post-1990 Gandhi Series)</t>
+  </si>
+  <si>
+    <t>This 5 Rupees Reserve Bank of India note, often called the "Tractor Note" or "Farmer with Tractor" note, features Mahatma Gandhi on the front and a farmer ploughing a field with a tractor against a sunrise on the reverse. It was issued from the 1990s until around 2009, symbolizing India's rural economy and agricultural focus. Text is printed in 15 Indian languages, and the note displays prominent Red or Green serial numbers depending on the issue year. These notes are now withdrawn and considered collectible, especially with rare serial numbers or unusual prefixes.</t>
+  </si>
+  <si>
+    <t>India 5 Rupees "Jawaharlal Nehru Centenary" Coin (1989)</t>
+  </si>
+  <si>
+    <t>LEADER-COIN-001</t>
+  </si>
+  <si>
+    <t>This commemorative coin was issued in 1989 to mark the birth centenary of Jawaharlal Nehru, India's first Prime Minister. Made of copper-nickel, it weighs approximately 12.5 grams and is 31 mm in diameter. The obverse side displays the Lion Capital of Ashoka above the denomination "5 Rupees." The reverse side features Jawaharlal Nehru in a Gandhi cap, encircled by the inscriptions "JAWAHARLAL NEHRU," "CENTENARY," "JANM SHATI," and the year "1989" in both Hindi and English. It was minted at Mumbai and Hyderabad, with a large flan size.</t>
+  </si>
+  <si>
+    <t>India 1 Rupee "Jawaharlal Nehru Centenary" Coin (1989)</t>
+  </si>
+  <si>
+    <t>This commemorative coin was issued in 1989 to celebrate the birth centenary (100 years) of Pandit Jawaharlal Nehru, India's first Prime Minister. The obverse features the Lion Capital of Ashoka above the denomination "1 Rupee" in Hindi and English. The reverse depicts a portrait of Nehru, with the inscriptions “JAWAHARLAL NEHRU” and “CENTENARY 1989” in both Hindi and English. It is made of copper-nickel, weighs about 6 grams, is 26 mm in diameter, and was struck at Noida, Mumbai, Kolkata, and Hyderabad mints, distinguished by different mint marks.</t>
+  </si>
+  <si>
+    <t>This commemorative coin was issued in 1989 to celebrate the 100th birth anniversary (centenary) of Jawaharlal Nehru, India's first Prime Minister. The reverse features his portrait with the inscriptions “Jawaharlal Nehru” and “Centenary 1989” in both Hindi and English. The obverse has the Lion Capital of Ashoka and denomination "1 Rupee" in Hindi and English. The coin is made of copper-nickel, weighs about 6 grams, and was minted at Mumbai, Kolkata, Hyderabad, and Noida with different mint marks.</t>
+  </si>
+  <si>
+    <t>India 1 Rupee "Rajiv Gandhi" Commemorative Coin (1991)</t>
+  </si>
+  <si>
+    <t>This commemorative coin honors Rajiv Gandhi (1944–1991), the 9th Prime Minister of India, issued shortly after his assassination. The reverse features his portrait with the inscriptions "Rajiv Gandhi" and the years "1944–1991" in English and Hindi. The obverse has the Lion Capital of Ashoka and the denomination "1 Rupee" in English and Hindi. The coin is made from copper-nickel, weighs about 6 grams, and measures 26 mm in diameter. It was minted at Mumbai and Hyderabad mints, typically with corresponding mint marks.</t>
+  </si>
+  <si>
+    <t>India 50 Paise "Indira Gandhi" Commemorative Coin (1984/1985)</t>
+  </si>
+  <si>
+    <t>India 5 Rupees "Dr. Rajendra Prasad 125th Birth Anniversary" Commemorative Coin (2009)</t>
+  </si>
+  <si>
+    <t>This commemorative 5 rupee coin was issued in 2009 to mark the 125th birth anniversary of Dr. Rajendra Prasad, the first President of India. The obverse features the Lion Capital of Ashoka above the denomination "5 Rupees" in Hindi and English, while the reverse bears a portrait of Dr. Rajendra Prasad, his lifespan (1884–1963), and the inscription "125th Birth Anniversary" in Hindi and English. This coin is composed of nickel-brass, weighs 6 grams, and is about 23 mm in diameter. It was issued by multiple mints including Mumbai (♦), Hyderabad (★), Kolkata (no mark), and Noida (- ), with minor differences in value depending on the mint.</t>
+  </si>
+  <si>
+    <t>This commemorative coin was issued to honor the late Prime Minister Indira Gandhi (1917–1984). The obverse features the Lion Capital of Ashoka and the denomination “50 Paise.” The reverse side bears a right-facing portrait of Indira Gandhi, with her name and the years "1917–1984" inscribed in Hindi and English. It is made of copper-nickel, weighs about 5 grams, and measures 24 mm in diameter. The coins were minted at Mumbai, Kolkata, and Hyderabad, with Hyderabad (star mark) and Kolkata (no mark) being more collectible</t>
+  </si>
+  <si>
+    <t>India 50 Paise "Indira Gandhi" Commemorative Coin (1984)</t>
+  </si>
+  <si>
+    <t>This 50 paise commemorative coin was issued in 1984 to honor the memory of India’s first female Prime Minister, Indira Gandhi (1917–1984). The obverse features the Lion Capital of Ashoka with the denomination "50 Paise", and the reverse carries a portrait of Indira Gandhi with the years "1917–1984" inscribed in both Hindi and English. The coin is made of copper-nickel, weighs about 5 grams, and measures approximately 24 mm in diameter. It was issued by the Mumbai (diamond), Kolkata (no mark), and Hyderabad (star) mints</t>
+  </si>
+  <si>
+    <t>India 20 Paise "Mahatma Gandhi Birth Centenary" Commemorative Coin (1969)</t>
+  </si>
+  <si>
+    <t>This 20 paise coin was issued in 1969 to celebrate the birth centenary of Mahatma Gandhi (1869–1948). The obverse features the Lion Capital of Ashoka and the denomination “20 Paise,” with "भारत INDIA" in Hindi and English. The reverse displays a profile of Mahatma Gandhi with the inscription "MAHATMA GANDHI" and the years "1869-1948." The coin is composed of aluminium-bronze, weighs approximately 4.5 grams, and is 22 mm in diameter. It was issued from Mumbai (♦), Kolkata (no mark), and Hyderabad (star) mints.</t>
+  </si>
+  <si>
+    <t>India 2 Rupees "Dr. Syama Prasad Mookerjee Centenary" Coin (2001)</t>
+  </si>
+  <si>
+    <t>This commemorative coin was issued in 2001 to celebrate the birth centenary of Dr. Syama Prasad Mookerjee (1901–1953), an eminent Indian politician and founder of the Bharatiya Jana Sangh. The reverse features his portrait with inscriptions in Hindi and English noting the centenary (1901–2001). The obverse has the Lion Capital of Ashoka above the denomination "2 Rupees," written in Hindi and English. The coin is composed of copper-nickel, weighs approximately 6 grams, and measures about 26 mm in diameter. Mints include Hyderabad (star), Mumbai (diamond), Kolkata (no mark), and Noida (dot).</t>
+  </si>
+  <si>
+    <t>India 2 Rupees "150 Years of Indian Railways - Bholu the Guard" (2003)</t>
+  </si>
+  <si>
+    <t>This commemorative coin was issued in 2003 to celebrate the 150th anniversary of Indian Railways, which was established in 1853. The reverse features "Bholu the Guard," the elephant mascot of Indian Railways, holding a signal lamp, along with inscriptions "Railways," "150 Glorious Years," and "Bholu The Guard" (in both English and Hindi), and the year 2003. The obverse shows the Lion Capital of Ashoka above the denomination "2 Rupees" in Hindi and English. The coin is copper-nickel, weighs about 6.05 grams, and is 26.5 mm in diameter, with an 11-sided (hendecagonal) shape. Issued by all four Indian mints: Mumbai, Hyderabad, Kolkata, and Noida.</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760868418/20251019_093637_kjqlgh.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760868417/20251019_093702_prnuyv.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760868416/20251019_093742_i8g934.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760868414/20251019_093734_ewmk0h.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869070/20251019_094124_banlty.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869048/20251019_094042_q5dniz.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869045/20251019_094227_rxgbjf.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869043/20251019_094220_nhwy4d.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869351/20251019_094430_hfoocx.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869350/20251019_094439_oflxqf.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869369/20251019_094500_nzwyyv.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869359/20251019_094454_iownsx.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869577/20251019_094721_xeenqd.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869577/20251019_094728_isfvsc.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869575/20251019_094746_ujuubr.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869572/20251019_094740_ekzmxy.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869792/20251019_094840_qzmuyn.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869792/20251019_094847_qbclhe.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869793/20251019_094857_kg8idr.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869793/20251019_094901_pkgod6.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869851/20251019_095229_paoblv.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869853/20251019_095243_l5eezq.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869854/20251019_095220_f8hnx6.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869855/20251019_095247_gll09g.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869916/20251019_095419_jw0lfx.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869915/20251019_095428_tiff9l.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869915/20251019_095441_xm58et.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869917/20251019_095446_rbxjrf.jpg</t>
+  </si>
+  <si>
+    <t>Old Note Gallery</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760870300/20251019_100530_e3nlcu.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760870299/20251019_100540_xtasmh.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760870311/20251019_100605_vqwkd7.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760870306/20251019_100559_thvgq0.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760870393/20251019_100636_ppjzyr.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760870394/20251019_100644_yrp0pr.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760870399/20251019_100659_zunc1w.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760870392/20251019_100654_kt7vi8.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760870813/20251019_100737_y6yhv1.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760870811/20251019_100758_svqesk.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760870807/20251019_100744_drft5f.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760870821/20251019_100807_cecq3j.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760870906/20251019_100858_bqfvhu.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760870907/20251019_100917_kvybng.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760870908/20251019_100908_epztsz.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760870909/20251019_100925_wgzgde.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760871041/20251019_101008_n6zrfm.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760871036/20251019_101017_rmsid6.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760871039/20251019_101046_avjgce.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760871033/20251019_101040_wu6dab.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760871196/20251019_101114_xs9phw.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760871190/20251019_101150_kerktl.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760871195/20251019_101146_ot5pjq.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760871187/20251019_101122_aev4da.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760871533/20251019_101215_owasmu.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760871536/20251019_101234_cugr1t.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760871543/20251019_101223_uhdapv.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760871545/20251019_101242_auuefs.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760871691/20251019_101325_ecid7i.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760871690/20251019_101334_yfvoy9.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760871691/20251019_101344_x9ldfq.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760871690/20251019_101354_rfu2un.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760871790/20251019_101550_y7uvpk.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760871791/20251019_101556_rjqhsy.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760871790/20251019_101627_s2ju4d.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760871796/20251019_101632_hw6lhd.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760871861/20251019_101747_xn0hbu.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760871857/20251019_101705_vomvl5.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760871857/20251019_101742_qtis5w.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760871855/20251019_101711_eipmi9.jpg</t>
   </si>
 </sst>
 </file>
@@ -347,7 +658,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -355,10 +666,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -676,21 +988,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE73C53-2EDC-4BF5-96A6-A739EA59CBD8}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="28.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="3"/>
-    <col min="9" max="9" width="67.109375" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="67.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -729,360 +1038,325 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3">
+        <v>500</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D3" s="3">
         <v>500</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="F3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="J3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="4">
-        <v>500</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="D4" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="F4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="H4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="J4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="4">
-        <v>2500</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="D5" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="F5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="J5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D6">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7">
         <v>5000</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="F7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="J7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="F8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="J8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D9">
         <v>1000</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="F9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="J9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="3">
-        <v>500</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="4" t="s">
+      <c r="D10">
+        <v>30000</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="3">
-        <v>30000</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="J10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="K10" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.35">
-      <c r="F12" s="4"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.35">
-      <c r="F13" s="4"/>
+      <c r="F13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1126,16 +1400,801 @@
     <hyperlink ref="H9" r:id="rId37" xr:uid="{42C6C0BE-FFD1-441D-9259-1581960A019A}"/>
     <hyperlink ref="J9" r:id="rId38" xr:uid="{E99091E2-1D93-4541-81BD-CC1599BE12E7}"/>
     <hyperlink ref="K9" r:id="rId39" xr:uid="{FE0EBC0F-8FEB-447E-8BD7-A7EAE0FF09AD}"/>
-    <hyperlink ref="E10" r:id="rId40" xr:uid="{FD7ABBB0-646E-42E5-A29F-BE8814F05A92}"/>
-    <hyperlink ref="G10" r:id="rId41" xr:uid="{FFF5C0AA-ADCB-4649-8E7B-18060440BBAA}"/>
-    <hyperlink ref="H10" r:id="rId42" xr:uid="{3E8054B4-B1A2-45D2-A8F0-83C1DB6A9EDD}"/>
-    <hyperlink ref="J10" r:id="rId43" xr:uid="{4DA16023-7185-4B64-8793-8240E79BDDD9}"/>
-    <hyperlink ref="K10" r:id="rId44" xr:uid="{17425A7A-CE2C-4B70-B7C5-E2B812B8D8FC}"/>
-    <hyperlink ref="E11" r:id="rId45" xr:uid="{43258076-9009-4DBA-95D5-2FBD962EA5D4}"/>
-    <hyperlink ref="G11" r:id="rId46" xr:uid="{1D2C8A94-FC5D-4FBD-B37D-1657A38E5CB0}"/>
-    <hyperlink ref="H11" r:id="rId47" xr:uid="{CB2F3F3B-D712-465E-88F0-BE38FED1D8BD}"/>
-    <hyperlink ref="J11" r:id="rId48" xr:uid="{5CBB7F4F-6971-4B13-B529-DE12023D8928}"/>
-    <hyperlink ref="K11" r:id="rId49" xr:uid="{8D758B55-5925-477E-97AD-2C701331791E}"/>
+    <hyperlink ref="E10" r:id="rId40" xr:uid="{43258076-9009-4DBA-95D5-2FBD962EA5D4}"/>
+    <hyperlink ref="G10" r:id="rId41" xr:uid="{1D2C8A94-FC5D-4FBD-B37D-1657A38E5CB0}"/>
+    <hyperlink ref="H10" r:id="rId42" xr:uid="{CB2F3F3B-D712-465E-88F0-BE38FED1D8BD}"/>
+    <hyperlink ref="J10" r:id="rId43" xr:uid="{5CBB7F4F-6971-4B13-B529-DE12023D8928}"/>
+    <hyperlink ref="K10" r:id="rId44" xr:uid="{8D758B55-5925-477E-97AD-2C701331791E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19989FF-8C56-43F6-A462-200A6BE109D0}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2">
+        <v>5000</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>5000</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>2000</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6">
+        <v>5000</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7">
+        <v>20000</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8">
+        <v>10000</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9">
+        <v>20000</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11">
+        <v>5000</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{FD7ABBB0-646E-42E5-A29F-BE8814F05A92}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{FFF5C0AA-ADCB-4649-8E7B-18060440BBAA}"/>
+    <hyperlink ref="H2" r:id="rId3" xr:uid="{3E8054B4-B1A2-45D2-A8F0-83C1DB6A9EDD}"/>
+    <hyperlink ref="J2" r:id="rId4" xr:uid="{4DA16023-7185-4B64-8793-8240E79BDDD9}"/>
+    <hyperlink ref="K2" r:id="rId5" xr:uid="{17425A7A-CE2C-4B70-B7C5-E2B812B8D8FC}"/>
+    <hyperlink ref="E3" r:id="rId6" xr:uid="{7B58CABB-1A08-47E8-A2FD-BA1588A96283}"/>
+    <hyperlink ref="G3" r:id="rId7" xr:uid="{02EB178C-F3E3-4A6F-8EAD-0468D72B4607}"/>
+    <hyperlink ref="H3" r:id="rId8" xr:uid="{6F6385FC-C427-4AB2-8415-44DD836576BE}"/>
+    <hyperlink ref="J3" r:id="rId9" xr:uid="{74861276-B46F-467D-BE8D-182A963AD89D}"/>
+    <hyperlink ref="K3" r:id="rId10" xr:uid="{78E5E316-0656-46A3-8063-EF83F6FD106D}"/>
+    <hyperlink ref="E4" r:id="rId11" xr:uid="{DC5DCA34-98AF-4853-8AF2-DCECACDFCDE6}"/>
+    <hyperlink ref="G4" r:id="rId12" xr:uid="{CB76F936-D876-4338-941B-2E8F89529AC9}"/>
+    <hyperlink ref="H4" r:id="rId13" xr:uid="{F3FFB461-EC3A-4A5A-A8D8-94A915352237}"/>
+    <hyperlink ref="J4" r:id="rId14" xr:uid="{34ACE13A-4EDE-4C8C-B57C-53BD49AFFF8B}"/>
+    <hyperlink ref="K4" r:id="rId15" xr:uid="{B38B8BE3-C4E9-450F-9350-62D3C8BD6D20}"/>
+    <hyperlink ref="E5" r:id="rId16" xr:uid="{AE97783C-D333-4B86-A854-95D17CFAC915}"/>
+    <hyperlink ref="G5" r:id="rId17" xr:uid="{DD87CE73-885B-4381-86DC-D8E96EEB0ABC}"/>
+    <hyperlink ref="H5" r:id="rId18" xr:uid="{8DC3125B-F949-476E-B508-A60B0E25FC45}"/>
+    <hyperlink ref="J5" r:id="rId19" xr:uid="{BCD7BAB0-19E3-4254-BA9B-7413EAE75DFD}"/>
+    <hyperlink ref="K5" r:id="rId20" xr:uid="{18D54667-2CEE-4F7A-9695-2067238C2FB3}"/>
+    <hyperlink ref="E6" r:id="rId21" xr:uid="{F81A755F-E416-46E2-99A9-F9AC2420A784}"/>
+    <hyperlink ref="G6" r:id="rId22" xr:uid="{7A6A4C2A-A154-46AD-8997-49010C3515B0}"/>
+    <hyperlink ref="H6" r:id="rId23" xr:uid="{034AC9AE-39F0-43C6-8B83-06E82F102417}"/>
+    <hyperlink ref="J6" r:id="rId24" xr:uid="{492AD7E6-3EE3-4C82-9B36-7F529ED319B9}"/>
+    <hyperlink ref="K6" r:id="rId25" xr:uid="{B84C266F-CC9D-49C1-A60E-AF475899F0C8}"/>
+    <hyperlink ref="E7" r:id="rId26" xr:uid="{CDF29408-6CD8-44AC-9C05-3670BB691041}"/>
+    <hyperlink ref="G7" r:id="rId27" xr:uid="{08C1DE0E-845B-4749-939F-CFEED1D6FD50}"/>
+    <hyperlink ref="H7" r:id="rId28" xr:uid="{69FD1EAB-5ADA-4D44-A03F-E28C90DE1AD3}"/>
+    <hyperlink ref="J7" r:id="rId29" xr:uid="{31018C70-EFA5-40CD-ABDB-FB57B5545712}"/>
+    <hyperlink ref="K7" r:id="rId30" xr:uid="{0DEB0602-6BDA-44DA-9929-D948C32E3F70}"/>
+    <hyperlink ref="E8" r:id="rId31" xr:uid="{99861430-AE53-4153-A679-4B74E033ACD7}"/>
+    <hyperlink ref="G8" r:id="rId32" xr:uid="{558650BB-EC52-4E79-862B-8AE2926C7E2C}"/>
+    <hyperlink ref="H8" r:id="rId33" xr:uid="{00916649-0D40-4114-9159-F6544D0EB002}"/>
+    <hyperlink ref="J8" r:id="rId34" xr:uid="{AAAC0644-50EF-49D9-960A-7FAB91A3C930}"/>
+    <hyperlink ref="K8" r:id="rId35" xr:uid="{C3CD3548-470F-41D2-ADA1-B9F0534D132F}"/>
+    <hyperlink ref="E9" r:id="rId36" xr:uid="{7DD77019-08EC-463D-82B9-42DBC1BF9685}"/>
+    <hyperlink ref="G9" r:id="rId37" xr:uid="{4587A4AE-89DF-4B32-A821-2A38F4572D5B}"/>
+    <hyperlink ref="H9" r:id="rId38" xr:uid="{3B4F3243-55BF-4C34-BFCB-FD66A0EE5E55}"/>
+    <hyperlink ref="J9" r:id="rId39" xr:uid="{A1FE0D40-31F1-418A-89FB-B9D68B8EB8BA}"/>
+    <hyperlink ref="K9" r:id="rId40" xr:uid="{4A2254CD-7371-4170-B1C4-5CA61328D907}"/>
+    <hyperlink ref="E10" r:id="rId41" xr:uid="{CFAAFADA-BFA7-4C8D-8A1A-490D40C9C2F7}"/>
+    <hyperlink ref="G10" r:id="rId42" xr:uid="{CE160F84-4E34-4BD8-909E-EC52690042D6}"/>
+    <hyperlink ref="H10" r:id="rId43" xr:uid="{720129C9-0F0C-432E-817D-AC956A45BE7B}"/>
+    <hyperlink ref="J10" r:id="rId44" xr:uid="{C6396BB1-54F5-47D3-93FB-87E4CA7BCB76}"/>
+    <hyperlink ref="K10" r:id="rId45" xr:uid="{2D0F907B-F351-4958-BF8F-9D66524015E0}"/>
+    <hyperlink ref="E11" r:id="rId46" xr:uid="{9CE1CF9A-DABB-4D72-AD73-87DEB89B1108}"/>
+    <hyperlink ref="G11" r:id="rId47" xr:uid="{4E773F5A-F4D9-408E-B941-2D55E96FB9AB}"/>
+    <hyperlink ref="H11" r:id="rId48" xr:uid="{5B4F18E0-AA53-45A6-A436-49CC2892604A}"/>
+    <hyperlink ref="J11" r:id="rId49" xr:uid="{CFE39CC7-F06F-4F7F-8E01-2E4FA74A4DB3}"/>
+    <hyperlink ref="K11" r:id="rId50" xr:uid="{910838E4-9B73-4DC8-AF77-81D358F01202}"/>
+    <hyperlink ref="E12" r:id="rId51" xr:uid="{7CCE3500-CF9D-4BEA-AF2C-EEDE9C124E06}"/>
+    <hyperlink ref="G12" r:id="rId52" xr:uid="{34734496-9EDA-4CD0-871D-4774F88FE30F}"/>
+    <hyperlink ref="H12" r:id="rId53" xr:uid="{6B1D0010-F4AD-4FE3-B194-460E4099FE00}"/>
+    <hyperlink ref="J12" r:id="rId54" xr:uid="{55E6018D-3DBD-4409-BDDE-542434D86883}"/>
+    <hyperlink ref="K12" r:id="rId55" xr:uid="{281A843B-A5B7-4A2F-9374-D3DAB90F8FE0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7256E16C-20E7-4C56-A2FE-7502923055E2}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="6"/>
+    <col min="3" max="3" width="15.88671875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="6"/>
+    <col min="5" max="5" width="18.88671875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="14.6640625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="6">
+        <v>70000</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="6">
+        <v>200000</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{34F95D33-AEA1-45E9-9111-00488F0121E4}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{6EBF151C-DDE3-49E9-BA63-CC2C59AC9F18}"/>
+    <hyperlink ref="H2" r:id="rId3" xr:uid="{B64CFC98-A5F4-4D6C-BF62-2AC0006ACEEA}"/>
+    <hyperlink ref="J2" r:id="rId4" xr:uid="{DBA95801-A5A0-44FA-8B40-1785F0DBD88E}"/>
+    <hyperlink ref="K2" r:id="rId5" xr:uid="{80353E5F-F52A-4580-B45D-82D49FBCB0BB}"/>
+    <hyperlink ref="E3" r:id="rId6" xr:uid="{F3418C03-054D-4196-B419-9E65F4827F33}"/>
+    <hyperlink ref="G3" r:id="rId7" xr:uid="{B289AC9E-1035-40C3-98A6-9D6BEF5B630E}"/>
+    <hyperlink ref="H3" r:id="rId8" xr:uid="{CC9E8CEF-1ECF-428B-A699-852EEA79FA32}"/>
+    <hyperlink ref="J3" r:id="rId9" xr:uid="{435C4EA9-AE1C-4CC8-9905-E7B5959BE78F}"/>
+    <hyperlink ref="K3" r:id="rId10" xr:uid="{53ADFE60-1D90-4EEA-91F7-6B3C33724F6F}"/>
+    <hyperlink ref="E4" r:id="rId11" xr:uid="{7BCA2B80-FD33-4C1D-B114-C9AB23AC1709}"/>
+    <hyperlink ref="G4" r:id="rId12" xr:uid="{6C8EADC1-7F16-43CE-87FE-BD0E3A9ED887}"/>
+    <hyperlink ref="H4" r:id="rId13" xr:uid="{FA3EBE9F-29CC-4684-9336-2B3ADF298A90}"/>
+    <hyperlink ref="J4" r:id="rId14" xr:uid="{874440EA-97F1-4D73-9CC9-64B002219966}"/>
+    <hyperlink ref="K4" r:id="rId15" xr:uid="{5160EB25-4DFA-4AF8-99E3-407BD5B8C64A}"/>
+    <hyperlink ref="E5" r:id="rId16" xr:uid="{BA190943-1D77-4D2D-8B5E-4455568D0EBC}"/>
+    <hyperlink ref="G5" r:id="rId17" xr:uid="{CCD66277-7673-48A3-9842-7FD3CEB7756C}"/>
+    <hyperlink ref="H5" r:id="rId18" xr:uid="{9ABA5046-4731-4C48-85BB-6ABB1E6AC397}"/>
+    <hyperlink ref="J5" r:id="rId19" xr:uid="{9A515923-84A7-47E0-884B-9A8B7EEAA73B}"/>
+    <hyperlink ref="K5" r:id="rId20" xr:uid="{3A8216E2-0DED-4E0F-822E-491E8570CA24}"/>
+    <hyperlink ref="E6" r:id="rId21" xr:uid="{B169A5D0-0919-4E90-B0C3-EFCEFEC910D4}"/>
+    <hyperlink ref="G6" r:id="rId22" xr:uid="{4C52A487-CFEC-49F8-BB8B-F7404BAAA05F}"/>
+    <hyperlink ref="H6" r:id="rId23" xr:uid="{46172BF0-C26A-495E-B952-32350D1F348D}"/>
+    <hyperlink ref="J6" r:id="rId24" xr:uid="{F59A6095-210F-4977-911F-A868BDB3C51D}"/>
+    <hyperlink ref="K6" r:id="rId25" xr:uid="{286AA9BF-5183-41C9-BEEB-8B3C138D59B2}"/>
+    <hyperlink ref="E7" r:id="rId26" xr:uid="{BFAE61F7-6B30-440B-8518-7FC66F0526BB}"/>
+    <hyperlink ref="G7" r:id="rId27" xr:uid="{10D2A923-0D61-410E-B13F-3E0539E8F7C3}"/>
+    <hyperlink ref="H7" r:id="rId28" xr:uid="{6E493A52-4BD3-4EB9-9349-8D0E59189A58}"/>
+    <hyperlink ref="J7" r:id="rId29" xr:uid="{C3160AAB-AF39-4AF5-809A-7F418CEC6972}"/>
+    <hyperlink ref="K7" r:id="rId30" xr:uid="{4B046FE5-42EA-48B5-BEB8-B592A8FF2512}"/>
+    <hyperlink ref="E8" r:id="rId31" xr:uid="{82BB2DED-44EA-46CC-A332-D4D5959948C5}"/>
+    <hyperlink ref="G8" r:id="rId32" xr:uid="{BAD7E8B6-8D7A-48E6-BC31-F2DC2C483E5D}"/>
+    <hyperlink ref="H8" r:id="rId33" xr:uid="{6CFD96D6-F0F3-4FB9-907F-73E0A96B7DA0}"/>
+    <hyperlink ref="J8" r:id="rId34" xr:uid="{35FE4F4E-9702-4F91-9F7C-BA12B3BA0BFE}"/>
+    <hyperlink ref="K8" r:id="rId35" xr:uid="{A6D772FA-FAF7-4AE6-AC52-49B7BBCA5AAA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/storage.xlsx
+++ b/storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarav\Projects\coinsora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BFE764-1294-49AC-B87B-7AE3C9319D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F51739-8B73-405B-8C15-F86EE1EB2964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A4295153-D957-4117-8BC1-D264311D4EE7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A4295153-D957-4117-8BC1-D264311D4EE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Coin Showcase" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="203">
   <si>
     <t>ID</t>
   </si>
@@ -389,9 +389,6 @@
     <t>This commemorative coin was issued in 2003 to celebrate the 150th anniversary of Indian Railways, which was established in 1853. The reverse features "Bholu the Guard," the elephant mascot of Indian Railways, holding a signal lamp, along with inscriptions "Railways," "150 Glorious Years," and "Bholu The Guard" (in both English and Hindi), and the year 2003. The obverse shows the Lion Capital of Ashoka above the denomination "2 Rupees" in Hindi and English. The coin is copper-nickel, weighs about 6.05 grams, and is 26.5 mm in diameter, with an 11-sided (hendecagonal) shape. Issued by all four Indian mints: Mumbai, Hyderabad, Kolkata, and Noida.</t>
   </si>
   <si>
-    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760868418/20251019_093637_kjqlgh.jpg</t>
-  </si>
-  <si>
     <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760868417/20251019_093702_prnuyv.jpg</t>
   </si>
   <si>
@@ -401,21 +398,12 @@
     <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760868414/20251019_093734_ewmk0h.jpg</t>
   </si>
   <si>
-    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869070/20251019_094124_banlty.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869048/20251019_094042_q5dniz.jpg</t>
-  </si>
-  <si>
     <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869045/20251019_094227_rxgbjf.jpg</t>
   </si>
   <si>
     <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869043/20251019_094220_nhwy4d.jpg</t>
   </si>
   <si>
-    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869351/20251019_094430_hfoocx.jpg</t>
-  </si>
-  <si>
     <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869350/20251019_094439_oflxqf.jpg</t>
   </si>
   <si>
@@ -425,9 +413,6 @@
     <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869359/20251019_094454_iownsx.jpg</t>
   </si>
   <si>
-    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869577/20251019_094721_xeenqd.jpg</t>
-  </si>
-  <si>
     <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869577/20251019_094728_isfvsc.jpg</t>
   </si>
   <si>
@@ -437,21 +422,6 @@
     <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869572/20251019_094740_ekzmxy.jpg</t>
   </si>
   <si>
-    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869792/20251019_094840_qzmuyn.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869792/20251019_094847_qbclhe.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869793/20251019_094857_kg8idr.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869793/20251019_094901_pkgod6.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869851/20251019_095229_paoblv.jpg</t>
-  </si>
-  <si>
     <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869853/20251019_095243_l5eezq.jpg</t>
   </si>
   <si>
@@ -461,9 +431,6 @@
     <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869855/20251019_095247_gll09g.jpg</t>
   </si>
   <si>
-    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869916/20251019_095419_jw0lfx.jpg</t>
-  </si>
-  <si>
     <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760869915/20251019_095428_tiff9l.jpg</t>
   </si>
   <si>
@@ -594,6 +561,90 @@
   </si>
   <si>
     <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760871855/20251019_101711_eipmi9.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760879219/20251019_093637_kjqlgh.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760879384/20251019_094124_banlty.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760879496/20251019_094042_q5dniz.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760879774/20251019_094430_hfoocx.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760880005/20251019_094721_xeenqd.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760880207/20251019_094847_qbclhe.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760876499/20251019_094840_qzmuyn.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760876560/20251019_094901_pkgod6.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760876638/20251019_094857_kg8idr.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760876681/20251019_095229_paoblv.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dzluvgbia/image/upload/v1760877163/20251019_095419_jw0lfx.jpg</t>
+  </si>
+  <si>
+    <t>LEADER-COIN-002</t>
+  </si>
+  <si>
+    <t>LEADER-COIN-003</t>
+  </si>
+  <si>
+    <t>LEADER-COIN-004</t>
+  </si>
+  <si>
+    <t>LEADER-COIN-005</t>
+  </si>
+  <si>
+    <t>LEADER-COIN-006</t>
+  </si>
+  <si>
+    <t>LEADER-COIN-007</t>
+  </si>
+  <si>
+    <t>LEADER-COIN-008</t>
+  </si>
+  <si>
+    <t>LEADER-COIN-009</t>
+  </si>
+  <si>
+    <t>LEADER-COIN-010</t>
+  </si>
+  <si>
+    <t>LEADER-COIN-011</t>
+  </si>
+  <si>
+    <t>NOTE-001</t>
+  </si>
+  <si>
+    <t>NOTE-002</t>
+  </si>
+  <si>
+    <t>NOTE-003</t>
+  </si>
+  <si>
+    <t>NOTE-004</t>
+  </si>
+  <si>
+    <t>NOTE-005</t>
+  </si>
+  <si>
+    <t>NOTE-006</t>
+  </si>
+  <si>
+    <t>NOTE-007</t>
   </si>
 </sst>
 </file>
@@ -658,7 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -669,8 +720,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -989,7 +1038,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1414,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19989FF-8C56-43F6-A462-200A6BE109D0}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1504,29 +1553,32 @@
       <c r="B3" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="D3">
         <v>2000</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>82</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>99</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.35">
@@ -1536,29 +1588,32 @@
       <c r="B4" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="D4">
         <v>5000</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>82</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>101</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.35">
@@ -1568,29 +1623,32 @@
       <c r="B5" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="D5">
         <v>2000</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>82</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>102</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.35">
@@ -1600,29 +1658,32 @@
       <c r="B6" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="D6">
         <v>5000</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>82</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>104</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.35">
@@ -1632,29 +1693,32 @@
       <c r="B7" s="3" t="s">
         <v>105</v>
       </c>
+      <c r="C7" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="D7">
         <v>20000</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>82</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>108</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.35">
@@ -1664,29 +1728,32 @@
       <c r="B8" s="3" t="s">
         <v>106</v>
       </c>
+      <c r="C8" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="D8">
         <v>10000</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>82</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>107</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.35">
@@ -1696,29 +1763,32 @@
       <c r="B9" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="D9">
         <v>20000</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>82</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>110</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.35">
@@ -1728,29 +1798,32 @@
       <c r="B10" s="3" t="s">
         <v>111</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="D10">
         <v>2000</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>82</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>112</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.35">
@@ -1760,29 +1833,32 @@
       <c r="B11" s="3" t="s">
         <v>113</v>
       </c>
+      <c r="C11" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="D11">
         <v>5000</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>82</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>114</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.35">
@@ -1792,32 +1868,36 @@
       <c r="B12" s="3" t="s">
         <v>115</v>
       </c>
+      <c r="C12" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="D12">
         <v>1000</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>82</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>116</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{FD7ABBB0-646E-42E5-A29F-BE8814F05A92}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{FFF5C0AA-ADCB-4649-8E7B-18060440BBAA}"/>
@@ -1883,20 +1963,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7256E16C-20E7-4C56-A2FE-7502923055E2}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="6"/>
-    <col min="3" max="3" width="15.88671875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="6"/>
-    <col min="5" max="5" width="18.88671875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="14.6640625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -1935,266 +2011,288 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="6">
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2">
         <v>70000</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3">
+        <v>10000</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="K3" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4">
         <v>10000</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="E4" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="I4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="6">
-        <v>10000</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="6">
+      <c r="C5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5">
         <v>10000</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>145</v>
+        <v>179</v>
+      </c>
+      <c r="F5" t="s">
+        <v>134</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>90</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="6">
+      <c r="C6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6">
         <v>5000</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>145</v>
+        <v>180</v>
+      </c>
+      <c r="F6" t="s">
+        <v>134</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>92</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>136</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="6">
+      <c r="C7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7">
         <v>200000</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>145</v>
+        <v>184</v>
+      </c>
+      <c r="F7" t="s">
+        <v>134</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>94</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="6">
+      <c r="C8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8">
         <v>5000</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>145</v>
+        <v>185</v>
+      </c>
+      <c r="F8" t="s">
+        <v>134</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>96</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{34F95D33-AEA1-45E9-9111-00488F0121E4}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{6EBF151C-DDE3-49E9-BA63-CC2C59AC9F18}"/>
-    <hyperlink ref="H2" r:id="rId3" xr:uid="{B64CFC98-A5F4-4D6C-BF62-2AC0006ACEEA}"/>
-    <hyperlink ref="J2" r:id="rId4" xr:uid="{DBA95801-A5A0-44FA-8B40-1785F0DBD88E}"/>
-    <hyperlink ref="K2" r:id="rId5" xr:uid="{80353E5F-F52A-4580-B45D-82D49FBCB0BB}"/>
-    <hyperlink ref="E3" r:id="rId6" xr:uid="{F3418C03-054D-4196-B419-9E65F4827F33}"/>
-    <hyperlink ref="G3" r:id="rId7" xr:uid="{B289AC9E-1035-40C3-98A6-9D6BEF5B630E}"/>
-    <hyperlink ref="H3" r:id="rId8" xr:uid="{CC9E8CEF-1ECF-428B-A699-852EEA79FA32}"/>
-    <hyperlink ref="J3" r:id="rId9" xr:uid="{435C4EA9-AE1C-4CC8-9905-E7B5959BE78F}"/>
-    <hyperlink ref="K3" r:id="rId10" xr:uid="{53ADFE60-1D90-4EEA-91F7-6B3C33724F6F}"/>
-    <hyperlink ref="E4" r:id="rId11" xr:uid="{7BCA2B80-FD33-4C1D-B114-C9AB23AC1709}"/>
-    <hyperlink ref="G4" r:id="rId12" xr:uid="{6C8EADC1-7F16-43CE-87FE-BD0E3A9ED887}"/>
-    <hyperlink ref="H4" r:id="rId13" xr:uid="{FA3EBE9F-29CC-4684-9336-2B3ADF298A90}"/>
-    <hyperlink ref="J4" r:id="rId14" xr:uid="{874440EA-97F1-4D73-9CC9-64B002219966}"/>
-    <hyperlink ref="K4" r:id="rId15" xr:uid="{5160EB25-4DFA-4AF8-99E3-407BD5B8C64A}"/>
-    <hyperlink ref="E5" r:id="rId16" xr:uid="{BA190943-1D77-4D2D-8B5E-4455568D0EBC}"/>
-    <hyperlink ref="G5" r:id="rId17" xr:uid="{CCD66277-7673-48A3-9842-7FD3CEB7756C}"/>
-    <hyperlink ref="H5" r:id="rId18" xr:uid="{9ABA5046-4731-4C48-85BB-6ABB1E6AC397}"/>
-    <hyperlink ref="J5" r:id="rId19" xr:uid="{9A515923-84A7-47E0-884B-9A8B7EEAA73B}"/>
-    <hyperlink ref="K5" r:id="rId20" xr:uid="{3A8216E2-0DED-4E0F-822E-491E8570CA24}"/>
-    <hyperlink ref="E6" r:id="rId21" xr:uid="{B169A5D0-0919-4E90-B0C3-EFCEFEC910D4}"/>
-    <hyperlink ref="G6" r:id="rId22" xr:uid="{4C52A487-CFEC-49F8-BB8B-F7404BAAA05F}"/>
-    <hyperlink ref="H6" r:id="rId23" xr:uid="{46172BF0-C26A-495E-B952-32350D1F348D}"/>
-    <hyperlink ref="J6" r:id="rId24" xr:uid="{F59A6095-210F-4977-911F-A868BDB3C51D}"/>
-    <hyperlink ref="K6" r:id="rId25" xr:uid="{286AA9BF-5183-41C9-BEEB-8B3C138D59B2}"/>
-    <hyperlink ref="E7" r:id="rId26" xr:uid="{BFAE61F7-6B30-440B-8518-7FC66F0526BB}"/>
-    <hyperlink ref="G7" r:id="rId27" xr:uid="{10D2A923-0D61-410E-B13F-3E0539E8F7C3}"/>
-    <hyperlink ref="H7" r:id="rId28" xr:uid="{6E493A52-4BD3-4EB9-9349-8D0E59189A58}"/>
-    <hyperlink ref="J7" r:id="rId29" xr:uid="{C3160AAB-AF39-4AF5-809A-7F418CEC6972}"/>
-    <hyperlink ref="K7" r:id="rId30" xr:uid="{4B046FE5-42EA-48B5-BEB8-B592A8FF2512}"/>
-    <hyperlink ref="E8" r:id="rId31" xr:uid="{82BB2DED-44EA-46CC-A332-D4D5959948C5}"/>
-    <hyperlink ref="G8" r:id="rId32" xr:uid="{BAD7E8B6-8D7A-48E6-BC31-F2DC2C483E5D}"/>
-    <hyperlink ref="H8" r:id="rId33" xr:uid="{6CFD96D6-F0F3-4FB9-907F-73E0A96B7DA0}"/>
-    <hyperlink ref="J8" r:id="rId34" xr:uid="{35FE4F4E-9702-4F91-9F7C-BA12B3BA0BFE}"/>
-    <hyperlink ref="K8" r:id="rId35" xr:uid="{A6D772FA-FAF7-4AE6-AC52-49B7BBCA5AAA}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{B64CFC98-A5F4-4D6C-BF62-2AC0006ACEEA}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{DBA95801-A5A0-44FA-8B40-1785F0DBD88E}"/>
+    <hyperlink ref="K2" r:id="rId3" xr:uid="{80353E5F-F52A-4580-B45D-82D49FBCB0BB}"/>
+    <hyperlink ref="J3" r:id="rId4" xr:uid="{435C4EA9-AE1C-4CC8-9905-E7B5959BE78F}"/>
+    <hyperlink ref="K3" r:id="rId5" xr:uid="{53ADFE60-1D90-4EEA-91F7-6B3C33724F6F}"/>
+    <hyperlink ref="H4" r:id="rId6" xr:uid="{FA3EBE9F-29CC-4684-9336-2B3ADF298A90}"/>
+    <hyperlink ref="J4" r:id="rId7" xr:uid="{874440EA-97F1-4D73-9CC9-64B002219966}"/>
+    <hyperlink ref="K4" r:id="rId8" xr:uid="{5160EB25-4DFA-4AF8-99E3-407BD5B8C64A}"/>
+    <hyperlink ref="H5" r:id="rId9" xr:uid="{9ABA5046-4731-4C48-85BB-6ABB1E6AC397}"/>
+    <hyperlink ref="J5" r:id="rId10" xr:uid="{9A515923-84A7-47E0-884B-9A8B7EEAA73B}"/>
+    <hyperlink ref="K5" r:id="rId11" xr:uid="{3A8216E2-0DED-4E0F-822E-491E8570CA24}"/>
+    <hyperlink ref="H7" r:id="rId12" xr:uid="{6E493A52-4BD3-4EB9-9349-8D0E59189A58}"/>
+    <hyperlink ref="J7" r:id="rId13" xr:uid="{C3160AAB-AF39-4AF5-809A-7F418CEC6972}"/>
+    <hyperlink ref="K7" r:id="rId14" xr:uid="{4B046FE5-42EA-48B5-BEB8-B592A8FF2512}"/>
+    <hyperlink ref="H8" r:id="rId15" xr:uid="{6CFD96D6-F0F3-4FB9-907F-73E0A96B7DA0}"/>
+    <hyperlink ref="J8" r:id="rId16" xr:uid="{35FE4F4E-9702-4F91-9F7C-BA12B3BA0BFE}"/>
+    <hyperlink ref="K8" r:id="rId17" xr:uid="{A6D772FA-FAF7-4AE6-AC52-49B7BBCA5AAA}"/>
+    <hyperlink ref="E2" r:id="rId18" xr:uid="{2ACC8460-B7BA-42BC-9FF2-E89616CB0131}"/>
+    <hyperlink ref="G2" r:id="rId19" xr:uid="{454E4E1F-2CD3-4431-AAA4-038B8FA7FBC8}"/>
+    <hyperlink ref="E3" r:id="rId20" xr:uid="{1FC25C26-A2C0-4AE6-ACB7-C0514401909A}"/>
+    <hyperlink ref="G3" r:id="rId21" xr:uid="{9D7188A0-9B0B-404C-81A1-114A92AD61BD}"/>
+    <hyperlink ref="H3" r:id="rId22" xr:uid="{AEDC3969-650A-4D48-B1ED-2C9159817C67}"/>
+    <hyperlink ref="E4" r:id="rId23" xr:uid="{A8654483-075E-48BD-8EA0-9A4AE53D5DC9}"/>
+    <hyperlink ref="G4" r:id="rId24" xr:uid="{F37DD80A-D0A8-490C-89B8-548E9500BEB3}"/>
+    <hyperlink ref="E5" r:id="rId25" xr:uid="{AAF325C0-1F10-47C7-9989-7866A3A395CF}"/>
+    <hyperlink ref="G5" r:id="rId26" xr:uid="{BC33EB00-2A8C-4771-8A5C-6A60CD398205}"/>
+    <hyperlink ref="E6" r:id="rId27" xr:uid="{634D4CE9-3B34-4449-9E98-977B1A58EB4E}"/>
+    <hyperlink ref="G6" r:id="rId28" xr:uid="{F3CD6B47-F034-435D-A437-496103A13C86}"/>
+    <hyperlink ref="H6" r:id="rId29" xr:uid="{67589472-9BE9-4F95-BAE1-F6D062C2648E}"/>
+    <hyperlink ref="J6" r:id="rId30" xr:uid="{EBFF3B82-7FCC-4A9F-B182-FDC9C93DF10B}"/>
+    <hyperlink ref="K6" r:id="rId31" xr:uid="{F4F980AA-C492-4D3F-A49B-7D39E94F957C}"/>
+    <hyperlink ref="E7" r:id="rId32" xr:uid="{94206C41-4037-4A9A-83F4-2E76CE7A440E}"/>
+    <hyperlink ref="G7" r:id="rId33" xr:uid="{CE4B945F-7DFA-4644-99DF-647714F39195}"/>
+    <hyperlink ref="E8" r:id="rId34" xr:uid="{B60492B0-1AF0-4BA9-A169-95C1EB5C464C}"/>
+    <hyperlink ref="G8" r:id="rId35" xr:uid="{E860D449-4F7A-431B-B7F3-EE5A17148825}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
